--- a/langs/rust/rust.xlsx
+++ b/langs/rust/rust.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ueno\Prog\hirokuma.github.io\langs\rust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7022F26-9515-4BEC-85E7-CC19C1B675A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5332C429-FE09-408A-8412-AD3870067EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="915" windowWidth="25590" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>クレートとかモジュールとか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>package の中に複数の Cargo.toml があるパターンを見たのだが、package はネストできる？</t>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -93,6 +110,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2048,6 +2070,1626 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FEB5BF-826A-4874-B393-0341F2FCB2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="6905625"/>
+          <a:ext cx="1828800" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A62263-24C4-474F-8026-17BE8E0D6193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="6819900"/>
+          <a:ext cx="1733550" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0C32C4-B2D3-4A9A-9932-F8F370E8BD9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="6896100"/>
+          <a:ext cx="1819275" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB57620C-4A8C-427B-95E1-FCFF2DDE8F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3752850" y="6819900"/>
+          <a:ext cx="1752600" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: メモ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669AEF97-28F6-4791-8379-81DBBECC4363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772026" y="7296150"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>*.RS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="四角形: メモ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BD788E-718D-4596-B489-41154CCC014A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695826" y="7229475"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>*.RS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="四角形: メモ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3671EC79-D535-4DC7-BBB0-B0EA4971A49A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610101" y="7153275"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>*.rs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="四角形: メモ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2981C04-E8E0-4798-8226-ADC28FA9D3BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971926" y="7153275"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>main.rs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1015663" cy="223138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB64CF-5F33-4D0D-B192-B02A87D1E53C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="6705600"/>
+          <a:ext cx="1015663" cy="223138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>binary crate</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="四角形: メモ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292ED01D-0E73-453A-A424-F118EFC0B2D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639051" y="7296150"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>*.RS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="四角形: メモ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16296CD8-0743-425C-86D0-B99316A5EAB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7562851" y="7229475"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>*.RS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="四角形: メモ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D39FB08-572B-4533-B46E-A3CA00E333EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477126" y="7153275"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>*.rs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="四角形: メモ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C916C496-32AB-427D-B0BC-08B8CB561924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838951" y="7153275"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>lib.rs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1084912" cy="223138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CE35F4-2ACB-4112-8C66-18B2BEC80AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="6705600"/>
+          <a:ext cx="1084912" cy="223138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>library crate</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>157983</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>59449</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="吹き出し: 線 (強調線付き) 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B193509-30DF-4A6A-9521-937B6A81F7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7625583" y="8203981"/>
+          <a:ext cx="968266" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -145565"/>
+            <a:gd name="adj4" fmla="val -43775"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>個</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118570</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>60106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20036</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="吹き出し: 線 (強調線付き) 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB6BE0B-33FB-49A4-8C6C-FDB88F7285C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4919170" y="8203981"/>
+          <a:ext cx="968266" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -145565"/>
+            <a:gd name="adj4" fmla="val -43775"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>制限無し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6F750F-37F4-4ED7-B232-3D2903590E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="6496049"/>
+          <a:ext cx="5810250" cy="2305051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="669414" cy="223138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D827BA-8675-4B61-B1BD-BFF954848CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="6381750"/>
+          <a:ext cx="669414" cy="223138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>package</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="四角形: メモ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB75C13-0C53-4EAA-A8F7-774A1DC5C6DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829301" y="8181975"/>
+          <a:ext cx="619124" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Cargo.toml</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5184C423-E993-B028-7C21-D3A178B0C121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="6629400"/>
+          <a:ext cx="2000250" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557A195B-1FE2-4BDE-A046-BC720A71C2F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="6934200"/>
+          <a:ext cx="2047875" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="669414" cy="223138"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6C5914-5848-46F8-9780-D8F8982E66BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="6819900"/>
+          <a:ext cx="669414" cy="223138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>package</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="四角形: メモ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD149A3-3974-4FE1-A951-2830556BAB27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200151" y="7115175"/>
+          <a:ext cx="619124" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Cargo.toml</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="四角形: メモ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9976F63B-1D66-332E-D272-D78AA280ED14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200276" y="7124700"/>
+          <a:ext cx="476250" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>*.rs</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="コネクタ: 曲線 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7AF5A5-9873-A91C-3D9C-016F4F61D3FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4743451" y="5324474"/>
+          <a:ext cx="28575" cy="4638675"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="243528"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571B90D3-0974-C19A-DABF-3E90AB092C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="6238875"/>
+          <a:ext cx="415498" cy="243528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
+            <a:t>外部</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2308,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2321,6 +3963,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
